--- a/pegawai.xlsx
+++ b/pegawai.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dashboard SDM BPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B3071E5-557D-4174-BD06-96EB603B8873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB92DED1-CE6C-43CC-9829-BE78638837F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{A4D27E1C-1782-4C13-BE21-31DFF7274A9B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{A4D27E1C-1782-4C13-BE21-31DFF7274A9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sex ratio" sheetId="4" r:id="rId1"/>
@@ -2646,8 +2646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D55FE2-BDDF-482F-AD07-1DD492105F2D}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView zoomScale="59" workbookViewId="0">
-      <selection sqref="A1:M21"/>
+    <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3537,7 +3537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7FAD71-C794-44AD-815A-13A9273CA266}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+    <sheetView zoomScale="67" workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>

--- a/pegawai.xlsx
+++ b/pegawai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dashboard SDM BPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB92DED1-CE6C-43CC-9829-BE78638837F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6B78A9-8471-45AA-A174-0F364C9A8665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{A4D27E1C-1782-4C13-BE21-31DFF7274A9B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{A4D27E1C-1782-4C13-BE21-31DFF7274A9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sex ratio" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="64">
   <si>
     <t>Unit Kerja</t>
   </si>
@@ -606,887 +606,951 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DAAA905-3E89-4B4A-9239-BEC7D7AD19DB}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4">
+      <c r="C2" s="4">
         <v>37</v>
       </c>
-      <c r="C2" s="5">
+      <c r="D2" s="5">
         <v>35</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E2" s="3">
         <v>36</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" s="4">
         <v>39</v>
       </c>
-      <c r="F2" s="5">
+      <c r="G2" s="5">
         <v>41</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <v>42</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>76</v>
       </c>
-      <c r="I2" s="5">
+      <c r="J2" s="5">
         <v>76</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>78</v>
       </c>
-      <c r="K2" s="6">
+      <c r="L2" s="6">
         <v>94.871794871794862</v>
       </c>
-      <c r="L2" s="7">
+      <c r="M2" s="7">
         <v>85.365853658536579</v>
       </c>
-      <c r="M2" s="8">
+      <c r="N2" s="8">
         <v>85.714285714285708</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>1301</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4">
+      <c r="C3" s="4">
         <v>8</v>
       </c>
-      <c r="C3" s="5">
+      <c r="D3" s="5">
         <v>9</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
         <v>9</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F3" s="4">
         <v>9</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5">
         <v>13</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>12</v>
       </c>
-      <c r="H3" s="4">
-        <v>17</v>
-      </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
+        <v>17</v>
+      </c>
+      <c r="J3" s="5">
         <v>22</v>
       </c>
-      <c r="J3" s="3">
-        <v>21</v>
-      </c>
-      <c r="K3" s="6">
+      <c r="K3" s="3">
+        <v>21</v>
+      </c>
+      <c r="L3" s="6">
         <v>88.888888888888886</v>
       </c>
-      <c r="L3" s="7">
+      <c r="M3" s="7">
         <v>69.230769230769226</v>
       </c>
-      <c r="M3" s="8">
+      <c r="N3" s="8">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>1302</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4">
+      <c r="C4" s="4">
         <v>10</v>
       </c>
-      <c r="C4" s="5">
+      <c r="D4" s="5">
         <v>9</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>9</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="4">
         <v>10</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>12</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>10</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>20</v>
       </c>
-      <c r="I4" s="5">
-        <v>21</v>
-      </c>
-      <c r="J4" s="3">
+      <c r="J4" s="5">
+        <v>21</v>
+      </c>
+      <c r="K4" s="3">
         <v>19</v>
       </c>
-      <c r="K4" s="6">
+      <c r="L4" s="6">
         <v>100</v>
       </c>
-      <c r="L4" s="7">
+      <c r="M4" s="7">
         <v>75</v>
       </c>
-      <c r="M4" s="8">
+      <c r="N4" s="8">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>1303</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="4">
+      <c r="C5" s="4">
         <v>15</v>
       </c>
-      <c r="C5" s="5">
+      <c r="D5" s="5">
         <v>13</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="4">
         <v>7</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>10</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>9</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>22</v>
       </c>
-      <c r="I5" s="5">
+      <c r="J5" s="5">
         <v>23</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="3">
         <v>22</v>
       </c>
-      <c r="K5" s="6">
+      <c r="L5" s="6">
         <v>214.28571428571428</v>
       </c>
-      <c r="L5" s="7">
+      <c r="M5" s="7">
         <v>130</v>
       </c>
-      <c r="M5" s="8">
+      <c r="N5" s="8">
         <v>144.44444444444443</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>1304</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4">
         <v>10</v>
       </c>
-      <c r="C6" s="5">
+      <c r="D6" s="5">
         <v>10</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>10</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="4">
         <v>5</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="5">
         <v>6</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>6</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>15</v>
       </c>
-      <c r="I6" s="5">
+      <c r="J6" s="5">
         <v>16</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="3">
         <v>16</v>
       </c>
-      <c r="K6" s="6">
+      <c r="L6" s="6">
         <v>200</v>
       </c>
-      <c r="L6" s="7">
+      <c r="M6" s="7">
         <v>166.66666666666669</v>
       </c>
-      <c r="M6" s="8">
+      <c r="N6" s="8">
         <v>166.66666666666669</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>1305</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="4">
+      <c r="C7" s="4">
         <v>12</v>
       </c>
-      <c r="C7" s="5">
+      <c r="D7" s="5">
         <v>14</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <v>14</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <v>10</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <v>11</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>11</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>22</v>
       </c>
-      <c r="I7" s="5">
+      <c r="J7" s="5">
         <v>25</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="3">
         <v>25</v>
       </c>
-      <c r="K7" s="6">
+      <c r="L7" s="6">
         <v>120</v>
       </c>
-      <c r="L7" s="7">
+      <c r="M7" s="7">
         <v>127.27272727272727</v>
       </c>
-      <c r="M7" s="8">
+      <c r="N7" s="8">
         <v>127.27272727272727</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>1306</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="4">
+      <c r="C8" s="4">
         <v>15</v>
       </c>
-      <c r="C8" s="5">
+      <c r="D8" s="5">
         <v>16</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="3">
         <v>16</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <v>10</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="5">
         <v>10</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>25</v>
       </c>
-      <c r="I8" s="5">
+      <c r="J8" s="5">
         <v>26</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>25</v>
       </c>
-      <c r="K8" s="6">
+      <c r="L8" s="6">
         <v>150</v>
       </c>
-      <c r="L8" s="7">
+      <c r="M8" s="7">
         <v>160</v>
       </c>
-      <c r="M8" s="8">
+      <c r="N8" s="8">
         <v>177.77777777777777</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>1307</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="4">
+      <c r="C9" s="4">
         <v>15</v>
       </c>
-      <c r="C9" s="5">
+      <c r="D9" s="5">
         <v>15</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3">
         <v>15</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <v>9</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="5">
         <v>12</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>24</v>
       </c>
-      <c r="I9" s="5">
+      <c r="J9" s="5">
         <v>27</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>27</v>
       </c>
-      <c r="K9" s="6">
+      <c r="L9" s="6">
         <v>166.66666666666669</v>
       </c>
-      <c r="L9" s="7">
+      <c r="M9" s="7">
         <v>125</v>
       </c>
-      <c r="M9" s="8">
+      <c r="N9" s="8">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>1308</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4">
         <v>16</v>
       </c>
-      <c r="C10" s="5">
-        <v>17</v>
-      </c>
-      <c r="D10" s="3">
-        <v>17</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="D10" s="5">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3">
+        <v>17</v>
+      </c>
+      <c r="F10" s="4">
         <v>10</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G10" s="5">
         <v>13</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>13</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>26</v>
       </c>
-      <c r="I10" s="5">
+      <c r="J10" s="5">
         <v>30</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>30</v>
       </c>
-      <c r="K10" s="6">
+      <c r="L10" s="6">
         <v>160</v>
       </c>
-      <c r="L10" s="7">
+      <c r="M10" s="7">
         <v>130.76923076923077</v>
       </c>
-      <c r="M10" s="8">
+      <c r="N10" s="8">
         <v>130.76923076923077</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>1309</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="4">
+      <c r="C11" s="4">
         <v>9</v>
       </c>
-      <c r="C11" s="5">
+      <c r="D11" s="5">
         <v>10</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <v>11</v>
       </c>
-      <c r="F11" s="5">
+      <c r="G11" s="5">
         <v>11</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H11" s="3">
         <v>11</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>20</v>
       </c>
-      <c r="I11" s="5">
-        <v>21</v>
-      </c>
-      <c r="J11" s="3">
-        <v>21</v>
-      </c>
-      <c r="K11" s="6">
+      <c r="J11" s="5">
+        <v>21</v>
+      </c>
+      <c r="K11" s="3">
+        <v>21</v>
+      </c>
+      <c r="L11" s="6">
         <v>81.818181818181827</v>
       </c>
-      <c r="L11" s="7">
+      <c r="M11" s="7">
         <v>90.909090909090907</v>
       </c>
-      <c r="M11" s="8">
+      <c r="N11" s="8">
         <v>90.909090909090907</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>1310</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="4">
+      <c r="C12" s="4">
         <v>8</v>
       </c>
-      <c r="C12" s="5">
+      <c r="D12" s="5">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E12" s="3">
         <v>8</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
         <v>9</v>
       </c>
-      <c r="F12" s="5">
+      <c r="G12" s="5">
         <v>9</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>9</v>
       </c>
-      <c r="H12" s="4">
-        <v>17</v>
-      </c>
-      <c r="I12" s="5">
-        <v>17</v>
-      </c>
-      <c r="J12" s="3">
-        <v>17</v>
-      </c>
-      <c r="K12" s="6">
+      <c r="I12" s="4">
+        <v>17</v>
+      </c>
+      <c r="J12" s="5">
+        <v>17</v>
+      </c>
+      <c r="K12" s="3">
+        <v>17</v>
+      </c>
+      <c r="L12" s="6">
         <v>88.888888888888886</v>
       </c>
-      <c r="L12" s="7">
+      <c r="M12" s="7">
         <v>88.888888888888886</v>
       </c>
-      <c r="M12" s="8">
+      <c r="N12" s="8">
         <v>88.888888888888886</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>1311</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="4">
+      <c r="C13" s="4">
         <v>11</v>
       </c>
-      <c r="C13" s="5">
+      <c r="D13" s="5">
         <v>10</v>
       </c>
-      <c r="D13" s="3">
+      <c r="E13" s="3">
         <v>9</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <v>6</v>
       </c>
-      <c r="F13" s="5">
+      <c r="G13" s="5">
         <v>10</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="3">
         <v>10</v>
       </c>
-      <c r="H13" s="4">
-        <v>17</v>
-      </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
+        <v>17</v>
+      </c>
+      <c r="J13" s="5">
         <v>20</v>
       </c>
-      <c r="J13" s="3">
+      <c r="K13" s="3">
         <v>19</v>
       </c>
-      <c r="K13" s="6">
+      <c r="L13" s="6">
         <v>183.33333333333331</v>
       </c>
-      <c r="L13" s="7">
+      <c r="M13" s="7">
         <v>100</v>
       </c>
-      <c r="M13" s="8">
+      <c r="N13" s="8">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>1312</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="4">
+      <c r="C14" s="4">
         <v>10</v>
       </c>
-      <c r="C14" s="5">
+      <c r="D14" s="5">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="E14" s="3">
         <v>10</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <v>9</v>
       </c>
-      <c r="F14" s="5">
+      <c r="G14" s="5">
         <v>11</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>11</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>19</v>
       </c>
-      <c r="I14" s="5">
-        <v>21</v>
-      </c>
-      <c r="J14" s="3">
-        <v>21</v>
-      </c>
-      <c r="K14" s="6">
+      <c r="J14" s="5">
+        <v>21</v>
+      </c>
+      <c r="K14" s="3">
+        <v>21</v>
+      </c>
+      <c r="L14" s="6">
         <v>111.11111111111111</v>
       </c>
-      <c r="L14" s="7">
+      <c r="M14" s="7">
         <v>90.909090909090907</v>
       </c>
-      <c r="M14" s="8">
+      <c r="N14" s="8">
         <v>90.909090909090907</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>1371</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="4">
+      <c r="C15" s="4">
         <v>12</v>
       </c>
-      <c r="C15" s="5">
+      <c r="D15" s="5">
         <v>13</v>
       </c>
-      <c r="D15" s="3">
+      <c r="E15" s="3">
         <v>13</v>
       </c>
-      <c r="E15" s="4">
+      <c r="F15" s="4">
         <v>15</v>
       </c>
-      <c r="F15" s="5">
+      <c r="G15" s="5">
         <v>16</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>16</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>27</v>
       </c>
-      <c r="I15" s="5">
+      <c r="J15" s="5">
         <v>29</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>29</v>
       </c>
-      <c r="K15" s="6">
+      <c r="L15" s="6">
         <v>80</v>
       </c>
-      <c r="L15" s="7">
+      <c r="M15" s="7">
         <v>81.25</v>
       </c>
-      <c r="M15" s="8">
+      <c r="N15" s="8">
         <v>81.25</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>1372</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="4">
+      <c r="C16" s="4">
         <v>6</v>
       </c>
-      <c r="C16" s="5">
+      <c r="D16" s="5">
         <v>7</v>
       </c>
-      <c r="D16" s="3">
+      <c r="E16" s="3">
         <v>7</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="4">
         <v>11</v>
       </c>
-      <c r="F16" s="5">
+      <c r="G16" s="5">
         <v>10</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H16" s="3">
         <v>10</v>
       </c>
-      <c r="H16" s="4">
-        <v>17</v>
-      </c>
-      <c r="I16" s="5">
-        <v>17</v>
-      </c>
-      <c r="J16" s="3">
-        <v>17</v>
-      </c>
-      <c r="K16" s="6">
+      <c r="I16" s="4">
+        <v>17</v>
+      </c>
+      <c r="J16" s="5">
+        <v>17</v>
+      </c>
+      <c r="K16" s="3">
+        <v>17</v>
+      </c>
+      <c r="L16" s="6">
         <v>54.54545454545454</v>
       </c>
-      <c r="L16" s="7">
+      <c r="M16" s="7">
         <v>70</v>
       </c>
-      <c r="M16" s="8">
+      <c r="N16" s="8">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>1373</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="4">
+      <c r="C17" s="4">
         <v>4</v>
       </c>
-      <c r="C17" s="5">
+      <c r="D17" s="5">
         <v>4</v>
       </c>
-      <c r="D17" s="3">
+      <c r="E17" s="3">
         <v>4</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <v>7</v>
       </c>
-      <c r="F17" s="5">
+      <c r="G17" s="5">
         <v>9</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>11</v>
       </c>
-      <c r="I17" s="5">
+      <c r="J17" s="5">
         <v>13</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13</v>
       </c>
-      <c r="K17" s="6">
+      <c r="L17" s="6">
         <v>57.142857142857139</v>
       </c>
-      <c r="L17" s="7">
+      <c r="M17" s="7">
         <v>44.444444444444443</v>
       </c>
-      <c r="M17" s="8">
+      <c r="N17" s="8">
         <v>44.444444444444443</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>1374</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="4">
-        <v>3</v>
-      </c>
-      <c r="C18" s="5">
-        <v>3</v>
-      </c>
-      <c r="D18" s="3">
-        <v>3</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="C18" s="4">
+        <v>3</v>
+      </c>
+      <c r="D18" s="5">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3</v>
+      </c>
+      <c r="F18" s="4">
         <v>10</v>
       </c>
-      <c r="F18" s="5">
+      <c r="G18" s="5">
         <v>10</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>10</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>13</v>
       </c>
-      <c r="I18" s="5">
+      <c r="J18" s="5">
         <v>13</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>13</v>
       </c>
-      <c r="K18" s="6">
+      <c r="L18" s="6">
         <v>30</v>
       </c>
-      <c r="L18" s="7">
+      <c r="M18" s="7">
         <v>30</v>
       </c>
-      <c r="M18" s="8">
+      <c r="N18" s="8">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>1375</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="4">
+      <c r="C19" s="4">
         <v>6</v>
       </c>
-      <c r="C19" s="5">
+      <c r="D19" s="5">
         <v>6</v>
       </c>
-      <c r="D19" s="3">
+      <c r="E19" s="3">
         <v>6</v>
       </c>
-      <c r="E19" s="4">
+      <c r="F19" s="4">
         <v>15</v>
       </c>
-      <c r="F19" s="5">
+      <c r="G19" s="5">
         <v>15</v>
       </c>
-      <c r="G19" s="3">
+      <c r="H19" s="3">
         <v>15</v>
       </c>
-      <c r="H19" s="4">
-        <v>21</v>
-      </c>
-      <c r="I19" s="5">
-        <v>21</v>
-      </c>
-      <c r="J19" s="3">
-        <v>21</v>
-      </c>
-      <c r="K19" s="6">
+      <c r="I19" s="4">
+        <v>21</v>
+      </c>
+      <c r="J19" s="5">
+        <v>21</v>
+      </c>
+      <c r="K19" s="3">
+        <v>21</v>
+      </c>
+      <c r="L19" s="6">
         <v>40</v>
       </c>
-      <c r="L19" s="7">
+      <c r="M19" s="7">
         <v>40</v>
       </c>
-      <c r="M19" s="8">
+      <c r="N19" s="8">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>1376</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="4">
+      <c r="C20" s="4">
         <v>9</v>
       </c>
-      <c r="C20" s="5">
+      <c r="D20" s="5">
         <v>10</v>
       </c>
-      <c r="D20" s="3">
+      <c r="E20" s="3">
         <v>10</v>
       </c>
-      <c r="E20" s="4">
+      <c r="F20" s="4">
         <v>11</v>
       </c>
-      <c r="F20" s="5">
+      <c r="G20" s="5">
         <v>11</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>11</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>20</v>
       </c>
-      <c r="I20" s="5">
-        <v>21</v>
-      </c>
-      <c r="J20" s="3">
-        <v>21</v>
-      </c>
-      <c r="K20" s="6">
+      <c r="J20" s="5">
+        <v>21</v>
+      </c>
+      <c r="K20" s="3">
+        <v>21</v>
+      </c>
+      <c r="L20" s="6">
         <v>81.818181818181827</v>
       </c>
-      <c r="L20" s="7">
+      <c r="M20" s="7">
         <v>90.909090909090907</v>
       </c>
-      <c r="M20" s="8">
+      <c r="N20" s="8">
         <v>90.909090909090907</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>1377</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="4">
+      <c r="C21" s="4">
         <v>4</v>
       </c>
-      <c r="C21" s="5">
+      <c r="D21" s="5">
         <v>5</v>
       </c>
-      <c r="D21" s="3">
+      <c r="E21" s="3">
         <v>6</v>
       </c>
-      <c r="E21" s="4">
+      <c r="F21" s="4">
         <v>11</v>
       </c>
-      <c r="F21" s="5">
+      <c r="G21" s="5">
         <v>12</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>12</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>15</v>
       </c>
-      <c r="I21" s="5">
-        <v>17</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="J21" s="5">
+        <v>17</v>
+      </c>
+      <c r="K21" s="3">
         <v>18</v>
       </c>
-      <c r="K21" s="6">
+      <c r="L21" s="6">
         <v>36.363636363636367</v>
       </c>
-      <c r="L21" s="7">
+      <c r="M21" s="7">
         <v>41.666666666666671</v>
       </c>
-      <c r="M21" s="8">
+      <c r="N21" s="8">
         <v>50</v>
       </c>
     </row>
@@ -1500,7 +1564,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView zoomScale="66" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2644,887 +2708,951 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D55FE2-BDDF-482F-AD07-1DD492105F2D}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView zoomScale="73" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4">
         <v>54</v>
       </c>
-      <c r="F2" s="5">
+      <c r="G2" s="5">
         <v>56</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <v>58</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>20</v>
       </c>
-      <c r="I2" s="5">
+      <c r="J2" s="5">
         <v>18</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>18</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>76</v>
       </c>
-      <c r="L2" s="5">
+      <c r="M2" s="5">
         <v>76</v>
       </c>
-      <c r="M2" s="3">
+      <c r="N2" s="3">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>1301</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
         <v>4</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
         <v>4</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F3" s="4">
         <v>15</v>
       </c>
-      <c r="F3" s="5">
-        <v>17</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="G3" s="5">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3">
         <v>16</v>
       </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="4">
-        <v>17</v>
-      </c>
-      <c r="L3" s="5">
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4">
+        <v>17</v>
+      </c>
+      <c r="M3" s="5">
         <v>22</v>
       </c>
-      <c r="M3" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="N3" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>1302</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4">
         <v>18</v>
       </c>
-      <c r="F4" s="5">
-        <v>17</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="G4" s="5">
+        <v>17</v>
+      </c>
+      <c r="H4" s="3">
         <v>15</v>
       </c>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="5">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4">
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4">
         <v>20</v>
       </c>
-      <c r="L4" s="5">
-        <v>21</v>
-      </c>
-      <c r="M4" s="3">
+      <c r="M4" s="5">
+        <v>21</v>
+      </c>
+      <c r="N4" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>1303</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="4">
+      <c r="C5" s="4">
         <v>6</v>
       </c>
-      <c r="C5" s="5">
+      <c r="D5" s="5">
         <v>4</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>4</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="4">
         <v>15</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>18</v>
       </c>
-      <c r="G5" s="3">
-        <v>17</v>
-      </c>
-      <c r="H5" s="4">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-      <c r="K5" s="4">
+      <c r="H5" s="3">
+        <v>17</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4">
         <v>22</v>
       </c>
-      <c r="L5" s="5">
+      <c r="M5" s="5">
         <v>23</v>
       </c>
-      <c r="M5" s="3">
+      <c r="N5" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>1304</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
         <v>12</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="5">
         <v>14</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>14</v>
       </c>
-      <c r="H6" s="4">
-        <v>1</v>
-      </c>
-      <c r="I6" s="5">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4">
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4">
         <v>15</v>
       </c>
-      <c r="L6" s="5">
+      <c r="M6" s="5">
         <v>16</v>
       </c>
-      <c r="M6" s="3">
+      <c r="N6" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>1305</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5">
-        <v>3</v>
-      </c>
-      <c r="D7" s="3">
-        <v>3</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4">
         <v>20</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <v>19</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>19</v>
       </c>
-      <c r="H7" s="4">
-        <v>1</v>
-      </c>
-      <c r="I7" s="5">
-        <v>3</v>
-      </c>
-      <c r="J7" s="3">
-        <v>3</v>
-      </c>
-      <c r="K7" s="4">
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5">
+        <v>3</v>
+      </c>
+      <c r="K7" s="3">
+        <v>3</v>
+      </c>
+      <c r="L7" s="4">
         <v>22</v>
       </c>
-      <c r="L7" s="5">
+      <c r="M7" s="5">
         <v>25</v>
       </c>
-      <c r="M7" s="3">
+      <c r="N7" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>1306</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="4">
-        <v>3</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="3">
         <v>4</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <v>20</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="5">
         <v>20</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>19</v>
       </c>
-      <c r="H8" s="4">
-        <v>2</v>
-      </c>
-      <c r="I8" s="5">
-        <v>2</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2</v>
-      </c>
-      <c r="K8" s="4">
+      <c r="I8" s="4">
+        <v>2</v>
+      </c>
+      <c r="J8" s="5">
+        <v>2</v>
+      </c>
+      <c r="K8" s="3">
+        <v>2</v>
+      </c>
+      <c r="L8" s="4">
         <v>25</v>
       </c>
-      <c r="L8" s="5">
+      <c r="M8" s="5">
         <v>26</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>1307</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="4">
+      <c r="C9" s="4">
         <v>4</v>
       </c>
-      <c r="C9" s="5">
+      <c r="D9" s="5">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3">
         <v>5</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <v>18</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="5">
         <v>20</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>20</v>
       </c>
-      <c r="H9" s="4">
-        <v>2</v>
-      </c>
-      <c r="I9" s="5">
-        <v>2</v>
-      </c>
-      <c r="J9" s="3">
-        <v>2</v>
-      </c>
-      <c r="K9" s="4">
+      <c r="I9" s="4">
+        <v>2</v>
+      </c>
+      <c r="J9" s="5">
+        <v>2</v>
+      </c>
+      <c r="K9" s="3">
+        <v>2</v>
+      </c>
+      <c r="L9" s="4">
         <v>24</v>
       </c>
-      <c r="L9" s="5">
+      <c r="M9" s="5">
         <v>27</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="4">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3">
-        <v>2</v>
-      </c>
-      <c r="E10" s="4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>1308</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4">
         <v>23</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G10" s="5">
         <v>26</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>26</v>
       </c>
-      <c r="H10" s="4">
-        <v>1</v>
-      </c>
-      <c r="I10" s="5">
-        <v>2</v>
-      </c>
-      <c r="J10" s="3">
-        <v>2</v>
-      </c>
-      <c r="K10" s="4">
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5">
+        <v>2</v>
+      </c>
+      <c r="K10" s="3">
+        <v>2</v>
+      </c>
+      <c r="L10" s="4">
         <v>26</v>
       </c>
-      <c r="L10" s="5">
+      <c r="M10" s="5">
         <v>30</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>1309</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
         <v>18</v>
       </c>
-      <c r="F11" s="5">
+      <c r="G11" s="5">
         <v>19</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H11" s="3">
         <v>19</v>
       </c>
-      <c r="H11" s="4">
-        <v>1</v>
-      </c>
-      <c r="I11" s="5">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3">
-        <v>1</v>
-      </c>
-      <c r="K11" s="4">
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="4">
         <v>20</v>
       </c>
-      <c r="L11" s="5">
-        <v>21</v>
-      </c>
-      <c r="M11" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="M11" s="5">
+        <v>21</v>
+      </c>
+      <c r="N11" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>1310</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="4">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
         <v>15</v>
       </c>
-      <c r="F12" s="5">
+      <c r="G12" s="5">
         <v>15</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>15</v>
       </c>
-      <c r="H12" s="4">
-        <v>1</v>
-      </c>
-      <c r="I12" s="5">
-        <v>2</v>
-      </c>
-      <c r="J12" s="3">
-        <v>2</v>
-      </c>
-      <c r="K12" s="4">
-        <v>17</v>
-      </c>
-      <c r="L12" s="5">
-        <v>17</v>
-      </c>
-      <c r="M12" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5">
+        <v>2</v>
+      </c>
+      <c r="K12" s="3">
+        <v>2</v>
+      </c>
+      <c r="L12" s="4">
+        <v>17</v>
+      </c>
+      <c r="M12" s="5">
+        <v>17</v>
+      </c>
+      <c r="N12" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>1311</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="4">
-        <v>0</v>
-      </c>
-      <c r="C13" s="5">
-        <v>2</v>
-      </c>
-      <c r="D13" s="3">
-        <v>2</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4">
         <v>16</v>
       </c>
-      <c r="F13" s="5">
-        <v>17</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="G13" s="5">
+        <v>17</v>
+      </c>
+      <c r="H13" s="3">
         <v>16</v>
       </c>
-      <c r="H13" s="4">
-        <v>1</v>
-      </c>
-      <c r="I13" s="5">
-        <v>1</v>
-      </c>
-      <c r="J13" s="3">
-        <v>1</v>
-      </c>
-      <c r="K13" s="4">
-        <v>17</v>
-      </c>
-      <c r="L13" s="5">
+      <c r="I13" s="4">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1</v>
+      </c>
+      <c r="L13" s="4">
+        <v>17</v>
+      </c>
+      <c r="M13" s="5">
         <v>20</v>
       </c>
-      <c r="M13" s="3">
+      <c r="N13" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>1312</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="4">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4">
-        <v>17</v>
-      </c>
-      <c r="F14" s="5">
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <v>17</v>
+      </c>
+      <c r="G14" s="5">
         <v>19</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>19</v>
       </c>
-      <c r="H14" s="4">
-        <v>1</v>
-      </c>
-      <c r="I14" s="5">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3">
-        <v>1</v>
-      </c>
-      <c r="K14" s="4">
+      <c r="I14" s="4">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4">
         <v>19</v>
       </c>
-      <c r="L14" s="5">
-        <v>21</v>
-      </c>
-      <c r="M14" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="M14" s="5">
+        <v>21</v>
+      </c>
+      <c r="N14" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>1371</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="4">
-        <v>1</v>
-      </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
         <v>4</v>
       </c>
-      <c r="D15" s="3">
+      <c r="E15" s="3">
         <v>4</v>
       </c>
-      <c r="E15" s="4">
+      <c r="F15" s="4">
         <v>25</v>
       </c>
-      <c r="F15" s="5">
+      <c r="G15" s="5">
         <v>22</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>22</v>
       </c>
-      <c r="H15" s="4">
-        <v>1</v>
-      </c>
-      <c r="I15" s="5">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3">
-        <v>3</v>
-      </c>
-      <c r="K15" s="4">
+      <c r="I15" s="4">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5">
+        <v>3</v>
+      </c>
+      <c r="K15" s="3">
+        <v>3</v>
+      </c>
+      <c r="L15" s="4">
         <v>27</v>
       </c>
-      <c r="L15" s="5">
+      <c r="M15" s="5">
         <v>29</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>1372</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="4">
-        <v>1</v>
-      </c>
-      <c r="C16" s="5">
-        <v>2</v>
-      </c>
-      <c r="D16" s="3">
-        <v>2</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2</v>
+      </c>
+      <c r="F16" s="4">
         <v>14</v>
       </c>
-      <c r="F16" s="5">
+      <c r="G16" s="5">
         <v>12</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H16" s="3">
         <v>12</v>
       </c>
-      <c r="H16" s="4">
-        <v>2</v>
-      </c>
-      <c r="I16" s="5">
-        <v>3</v>
-      </c>
-      <c r="J16" s="3">
-        <v>3</v>
-      </c>
-      <c r="K16" s="4">
-        <v>17</v>
-      </c>
-      <c r="L16" s="5">
-        <v>17</v>
-      </c>
-      <c r="M16" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="I16" s="4">
+        <v>2</v>
+      </c>
+      <c r="J16" s="5">
+        <v>3</v>
+      </c>
+      <c r="K16" s="3">
+        <v>3</v>
+      </c>
+      <c r="L16" s="4">
+        <v>17</v>
+      </c>
+      <c r="M16" s="5">
+        <v>17</v>
+      </c>
+      <c r="N16" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>1373</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
         <v>10</v>
       </c>
-      <c r="F17" s="5">
+      <c r="G17" s="5">
         <v>12</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12</v>
       </c>
-      <c r="H17" s="4">
-        <v>1</v>
-      </c>
-      <c r="I17" s="5">
-        <v>1</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1</v>
-      </c>
-      <c r="K17" s="4">
+      <c r="I17" s="4">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+      <c r="L17" s="4">
         <v>11</v>
       </c>
-      <c r="L17" s="5">
+      <c r="M17" s="5">
         <v>13</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>1374</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
         <v>12</v>
       </c>
-      <c r="F18" s="5">
+      <c r="G18" s="5">
         <v>12</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>12</v>
       </c>
-      <c r="H18" s="4">
-        <v>1</v>
-      </c>
-      <c r="I18" s="5">
-        <v>1</v>
-      </c>
-      <c r="J18" s="3">
-        <v>1</v>
-      </c>
-      <c r="K18" s="4">
+      <c r="I18" s="4">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1</v>
+      </c>
+      <c r="L18" s="4">
         <v>13</v>
       </c>
-      <c r="L18" s="5">
+      <c r="M18" s="5">
         <v>13</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>1375</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="4">
-        <v>0</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
         <v>20</v>
       </c>
-      <c r="F19" s="5">
+      <c r="G19" s="5">
         <v>19</v>
       </c>
-      <c r="G19" s="3">
+      <c r="H19" s="3">
         <v>19</v>
       </c>
-      <c r="H19" s="4">
-        <v>1</v>
-      </c>
-      <c r="I19" s="5">
-        <v>1</v>
-      </c>
-      <c r="J19" s="3">
-        <v>1</v>
-      </c>
-      <c r="K19" s="4">
-        <v>21</v>
-      </c>
-      <c r="L19" s="5">
-        <v>21</v>
-      </c>
-      <c r="M19" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+      <c r="I19" s="4">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5">
+        <v>1</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1</v>
+      </c>
+      <c r="L19" s="4">
+        <v>21</v>
+      </c>
+      <c r="M19" s="5">
+        <v>21</v>
+      </c>
+      <c r="N19" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>1376</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="4">
-        <v>2</v>
-      </c>
-      <c r="C20" s="5">
-        <v>2</v>
-      </c>
-      <c r="D20" s="3">
-        <v>2</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="C20" s="4">
+        <v>2</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2</v>
+      </c>
+      <c r="F20" s="4">
         <v>15</v>
       </c>
-      <c r="F20" s="5">
+      <c r="G20" s="5">
         <v>16</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>16</v>
       </c>
-      <c r="H20" s="4">
-        <v>3</v>
-      </c>
-      <c r="I20" s="5">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3">
-        <v>3</v>
-      </c>
-      <c r="K20" s="4">
+      <c r="I20" s="4">
+        <v>3</v>
+      </c>
+      <c r="J20" s="5">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
+        <v>3</v>
+      </c>
+      <c r="L20" s="4">
         <v>20</v>
       </c>
-      <c r="L20" s="5">
-        <v>21</v>
-      </c>
-      <c r="M20" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+      <c r="M20" s="5">
+        <v>21</v>
+      </c>
+      <c r="N20" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>1377</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="4">
-        <v>1</v>
-      </c>
-      <c r="C21" s="5">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="4">
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4">
         <v>13</v>
       </c>
-      <c r="F21" s="5">
+      <c r="G21" s="5">
         <v>15</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>16</v>
       </c>
-      <c r="H21" s="4">
-        <v>1</v>
-      </c>
-      <c r="I21" s="5">
-        <v>1</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1</v>
-      </c>
-      <c r="K21" s="4">
+      <c r="I21" s="4">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
+      <c r="L21" s="4">
         <v>15</v>
       </c>
-      <c r="L21" s="5">
-        <v>17</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="5">
+        <v>17</v>
+      </c>
+      <c r="N21" s="3">
         <v>18</v>
       </c>
     </row>
@@ -3537,8 +3665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7FAD71-C794-44AD-815A-13A9273CA266}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView zoomScale="67" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
